--- a/data/trans_camb/P16A11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,32; 0,69</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 0,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 0,08</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 0,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 0,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 1,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>34,14%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-73,04%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,34%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 1,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 1,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 1,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 2,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 0,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 1,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 0,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 1,05</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>314,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>297,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,85%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-57,69; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,61; 564,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 262,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,37; 556,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 584,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,47; 352,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,36; 422,71</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 2,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 3,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 1,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 0,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; -0,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 1,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 0,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 0,76</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,4%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 225,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,5; 134,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,37; 174,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,18; 31,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,9; 17,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,15; -11,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,33; 69,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,71; 19,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,56; 28,84</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 2,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 4,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 4,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 6,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 2,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 6,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 3,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 2,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,15%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,49; 26,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,97; 46,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,79; 46,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 76,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,03; 27,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 67,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 35,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,79; 25,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; 40,69</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 11,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; -1,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 3,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 14,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 3,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,11; -1,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 11,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,79; -1,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; -0,93</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,26%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,03%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,91%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 43,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,96; -5,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,54; 11,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 49,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,47; 13,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,75; -5,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,2; 38,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,77; -3,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,32; -3,11</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,74</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,81</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,57; 18,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 11,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 15,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,4; 15,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; 6,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 21,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 14,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 6,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,43; 19,46</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,83%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,29; 47,35</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 30,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,27; 38,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 31,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 13,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,98; 46,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,86; 33,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 14,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,91; 41,35</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,63</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 5,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 3,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,86; 8,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 6,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 13,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 5,49</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 2,99</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,83; 11,35</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,18%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,86; 48,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 31,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,01; 71,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,75; 38,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,96; 18,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,22; 83,6</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,51; 38,89</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 21,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,01; 76,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,08</t>
+          <t>-0,69; 0,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,74</t>
+          <t>-0,08; 1,24</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-73,04%</t>
+          <t>-73,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>304,34%</t>
+          <t>209,22%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,26</t>
+          <t>-0,33; 1,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,52</t>
+          <t>-0,86; 1,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 1,05</t>
+          <t>-0,35; 0,97</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>105,01%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>48,21%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,37; 556,69</t>
+          <t>-78,6; 459,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 422,71</t>
+          <t>-59,53; 380,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,21</t>
+          <t>-1,07; 3,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; -0,43</t>
+          <t>-4,07; -0,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,76</t>
+          <t>-2,05; 0,79</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-53,13%</t>
+          <t>-51,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>-20,2%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 174,6</t>
+          <t>-34,66; 169,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,15; -11,84</t>
+          <t>-73,61; -10,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,56; 28,84</t>
+          <t>-51,39; 29,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,91</t>
+          <t>-10,59; 3,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,17</t>
+          <t>-2,29; 4,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,12</t>
+          <t>-5,4; 2,76</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>-3,31%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 46,59</t>
+          <t>-66,55; 30,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 67,62</t>
+          <t>-17,68; 58,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 40,69</t>
+          <t>-41,52; 25,57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,16</t>
+          <t>-7,61; 3,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,11; -1,63</t>
+          <t>-12,13; -1,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -0,93</t>
+          <t>-8,41; -0,78</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>-6,52%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-22,0%</t>
+          <t>-22,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-14,91%</t>
+          <t>-14,59%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 11,46</t>
+          <t>-22,2; 12,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-33,75; -5,6</t>
+          <t>-33,86; -6,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,32; -3,11</t>
+          <t>-24,98; -2,61</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>12,74</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,81</t>
+          <t>15,34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,57; 18,23</t>
+          <t>4,24; 20,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,21; 11,63</t>
+          <t>-3,97; 11,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,63; 15,07</t>
+          <t>2,24; 16,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,4; 15,26</t>
+          <t>3,46; 18,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 6,43</t>
+          <t>-7,32; 6,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,62; 21,97</t>
+          <t>-1,73; 43,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,87</t>
+          <t>6,05; 16,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,46</t>
+          <t>-4,41; 6,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,43; 19,46</t>
+          <t>2,66; 37,62</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>36,15%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15,29; 47,35</t>
+          <t>10,06; 60,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,33; 30,15</t>
+          <t>-9,8; 32,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10,27; 38,71</t>
+          <t>5,08; 47,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,02; 31,7</t>
+          <t>6,73; 43,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 13,44</t>
+          <t>-15,09; 15,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,98; 46,91</t>
+          <t>-3,81; 111,14</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,86; 33,17</t>
+          <t>13,62; 42,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 14,29</t>
+          <t>-9,76; 17,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,91; 41,35</t>
+          <t>6,11; 88,59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,22 +1928,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>12,62</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1953,22 +1953,22 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>9,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,72</t>
+          <t>3,54; 22,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,78</t>
+          <t>-1,57; 17,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,43</t>
+          <t>3,21; 19,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,18</t>
+          <t>1,16; 16,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,9</t>
+          <t>-7,17; 8,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,93</t>
+          <t>1,63; 14,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,49</t>
+          <t>4,15; 16,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,99</t>
+          <t>-2,75; 9,55</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,35</t>
+          <t>4,49; 14,54</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>17,73%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>6,69; 53,77</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 42,15</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 48,17</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 31,73</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; 17,72</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 28,65</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 32,16</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 19,34</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 29,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>8,0</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>6,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 5,72</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 3,78</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 7,1</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 6,18</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 2,9</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 20,4</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 5,49</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 2,99</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 14,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>31,78%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>25,39%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>48,01%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>11,24%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>45,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>16,86; 48,05</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>3,62; 31,9</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>36,01; 71,57</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 59,33</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>12,75; 38,66</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-4,96; 18,49</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>20,22; 83,6</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 126,51</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>18,51; 38,89</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>2,18; 21,44</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>32,01; 76,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>23,93; 99,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Edad-trans_camb.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,69</t>
+          <t>-0,32; 0,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,08</t>
+          <t>-0,66; 0,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,59</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 0,44</t>
+          <t>-0,16; 0,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,24</t>
+          <t>-0,14; 1,18</t>
         </is>
       </c>
     </row>
@@ -901,37 +901,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,88</t>
+          <t>0,05; 1,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,9</t>
+          <t>-0,02; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,18</t>
+          <t>-0,34; 1,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,0</t>
+          <t>-0,45; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,34</t>
+          <t>-1,3; 0,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,42</t>
+          <t>-0,81; 1,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 1,67</t>
+          <t>0,07; 1,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,97</t>
+          <t>-0,38; 0,96</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,69; —</t>
+          <t>-59,92; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,61; 564,22</t>
+          <t>-52,76; 798,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 262,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,6; 459,15</t>
+          <t>-78,93; 511,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 584,44</t>
+          <t>-8,17; 642,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 352,3</t>
+          <t>-62,7; 408,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,53; 380,37</t>
+          <t>-64,73; 367,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,08</t>
+          <t>-0,06; 4,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,48</t>
+          <t>-1,18; 2,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,12</t>
+          <t>-0,93; 3,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,0</t>
+          <t>-3,05; 0,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,43</t>
+          <t>-3,73; -0,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,32</t>
+          <t>-4,16; -0,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,89</t>
+          <t>-1,0; 2,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,54</t>
+          <t>-2,04; 0,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,79</t>
+          <t>-2,13; 0,67</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 225,28</t>
+          <t>-3,4; 232,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 134,72</t>
+          <t>-35,53; 158,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 169,88</t>
+          <t>-31,76; 179,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,18; 31,01</t>
+          <t>-57,13; 31,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,9; 17,73</t>
+          <t>-70,01; 3,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,61; -10,33</t>
+          <t>-73,91; -10,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 69,6</t>
+          <t>-23,88; 76,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 19,85</t>
+          <t>-49,08; 28,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 29,88</t>
+          <t>-50,08; 24,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,88</t>
+          <t>-5,0; 3,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,96</t>
+          <t>-3,19; 4,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 3,67</t>
+          <t>-9,81; 3,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 6,77</t>
+          <t>-1,01; 6,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,38</t>
+          <t>-4,73; 2,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,91</t>
+          <t>-2,37; 5,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,66</t>
+          <t>-1,87; 3,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,66</t>
+          <t>-3,0; 2,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,76</t>
+          <t>-5,51; 3,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 26,27</t>
+          <t>-33,42; 31,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 46,94</t>
+          <t>-21,78; 46,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 30,68</t>
+          <t>-64,75; 29,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 76,56</t>
+          <t>-8,82; 74,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 27,98</t>
+          <t>-37,59; 29,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 58,12</t>
+          <t>-18,13; 59,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 35,54</t>
+          <t>-14,46; 35,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 25,38</t>
+          <t>-22,2; 25,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 25,57</t>
+          <t>-40,94; 27,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 11,92</t>
+          <t>-1,54; 11,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -1,49</t>
+          <t>-13,84; -1,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 3,36</t>
+          <t>-7,81; 3,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 14,11</t>
+          <t>0,27; 13,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 3,98</t>
+          <t>-8,42; 4,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -1,76</t>
+          <t>-12,59; -1,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,42; 11,01</t>
+          <t>1,7; 11,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -1,08</t>
+          <t>-9,44; -0,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -0,78</t>
+          <t>-8,55; -0,53</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 43,99</t>
+          <t>-4,28; 42,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,96; -5,18</t>
+          <t>-41,17; -5,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 12,62</t>
+          <t>-22,92; 13,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,09; 49,17</t>
+          <t>0,48; 46,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 13,71</t>
+          <t>-24,14; 14,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-33,86; -6,15</t>
+          <t>-35,19; -6,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,2; 38,24</t>
+          <t>5,1; 39,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,77; -3,48</t>
+          <t>-28,23; -0,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,98; -2,61</t>
+          <t>-25,21; -1,93</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,24; 20,77</t>
+          <t>4,43; 20,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 11,14</t>
+          <t>-5,04; 10,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,24; 16,12</t>
+          <t>1,81; 15,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,46; 18,04</t>
+          <t>3,47; 18,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 6,63</t>
+          <t>-7,65; 6,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 43,06</t>
+          <t>-2,25; 43,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,05; 16,81</t>
+          <t>6,08; 17,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 6,77</t>
+          <t>-4,68; 6,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,66; 37,62</t>
+          <t>2,75; 36,63</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,06; 60,28</t>
+          <t>10,15; 59,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 32,79</t>
+          <t>-11,42; 31,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>5,08; 47,18</t>
+          <t>4,13; 45,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,73; 43,43</t>
+          <t>7,17; 43,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 15,32</t>
+          <t>-15,35; 14,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 111,14</t>
+          <t>-4,84; 110,43</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>13,62; 42,78</t>
+          <t>13,38; 43,22</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 17,34</t>
+          <t>-10,12; 16,08</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>6,11; 88,59</t>
+          <t>6,38; 92,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,54; 22,72</t>
+          <t>3,18; 21,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 17,07</t>
+          <t>-1,01; 16,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,21; 19,41</t>
+          <t>2,87; 19,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,16; 16,4</t>
+          <t>0,72; 15,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 8,95</t>
+          <t>-6,81; 9,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,72</t>
+          <t>2,03; 15,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,15; 16,0</t>
+          <t>4,31; 16,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 9,55</t>
+          <t>-2,54; 9,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,49; 14,54</t>
+          <t>3,99; 14,58</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>6,69; 53,77</t>
+          <t>6,03; 52,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 42,15</t>
+          <t>-2,13; 38,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>6,19; 48,17</t>
+          <t>5,37; 46,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,03; 31,73</t>
+          <t>1,21; 30,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 17,72</t>
+          <t>-11,32; 18,13</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,55; 28,65</t>
+          <t>3,37; 30,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>7,32; 32,16</t>
+          <t>7,78; 33,31</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 19,34</t>
+          <t>-4,51; 18,55</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>7,75; 29,71</t>
+          <t>7,09; 29,97</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,72</t>
+          <t>2,23; 5,78</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,78</t>
+          <t>0,63; 3,95</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,1</t>
+          <t>1,01; 7,31</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,18</t>
+          <t>2,51; 6,17</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,9</t>
+          <t>-0,83; 2,84</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2,76; 20,4</t>
+          <t>2,9; 22,26</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,49</t>
+          <t>2,87; 5,4</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,99</t>
+          <t>0,37; 2,99</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,62</t>
+          <t>3,66; 15,42</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>16,86; 48,05</t>
+          <t>16,44; 48,97</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>3,62; 31,9</t>
+          <t>4,64; 33,87</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>6,61; 59,33</t>
+          <t>9,22; 60,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>12,75; 38,66</t>
+          <t>14,19; 39,59</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 18,49</t>
+          <t>-4,63; 18,31</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>16,34; 126,51</t>
+          <t>17,27; 129,5</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>18,51; 38,89</t>
+          <t>18,59; 38,31</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>2,18; 21,44</t>
+          <t>2,54; 21,34</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>23,93; 99,97</t>
+          <t>24,12; 103,79</t>
         </is>
       </c>
     </row>
